--- a/BD paper/catalogos/waveform_4p1_filtered.xlsx
+++ b/BD paper/catalogos/waveform_4p1_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,26 @@
           <t>Inicio estación más cercana 5</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +610,26 @@
           <t>2014-03-04T02:49:57</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2014-03-04T02:50:02</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2014-03-04T02:50:03</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +702,26 @@
           <t>2014-04-04T07:57:48</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2014-04-04T07:57:49</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2014-04-04T07:57:50</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +794,26 @@
           <t>2014-04-12T22:35:19</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2014-04-12T22:35:21</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2014-04-12T22:35:22</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,6 +886,26 @@
           <t>2014-03-24T12:22:36</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2014-03-24T12:22:36</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2014-03-24T12:22:37</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -878,6 +978,26 @@
           <t>2014-03-24T05:22:54</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2014-03-24T05:22:54</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2014-03-24T05:22:56</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +1070,26 @@
           <t>2014-03-15T09:31:35</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2014-03-15T09:31:36</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2014-03-15T09:31:36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1022,6 +1162,26 @@
           <t>2014-05-15T16:21:06</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2014-05-15T16:21:07</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2014-05-15T16:21:07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1094,6 +1254,26 @@
           <t>2014-04-20T04:23:24</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2014-04-20T04:23:24</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2014-04-20T04:23:24</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1166,6 +1346,26 @@
           <t>2014-04-21T07:10:51</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2014-04-21T07:10:54</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2014-04-21T07:10:55</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1238,6 +1438,26 @@
           <t>2014-06-19T00:31:33</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2014-06-19T00:31:36</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2014-06-19T00:31:37</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1310,6 +1530,26 @@
           <t>2014-06-24T11:23:42</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2014-06-24T11:23:42</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2014-06-24T11:23:44</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1382,6 +1622,26 @@
           <t>2014-12-15T00:32:33</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2014-12-15T00:32:33</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2014-12-15T00:32:34</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1454,6 +1714,26 @@
           <t>2015-02-14T14:47:46</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2015-02-14T14:47:48</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2015-02-14T14:47:48</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1526,6 +1806,26 @@
           <t>2015-03-02T14:02:22</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2015-03-02T14:02:24</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2015-03-02T14:02:33</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1598,6 +1898,26 @@
           <t>2015-09-21T19:08:20</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2015-09-21T19:08:22</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2015-09-21T19:08:24</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1670,6 +1990,26 @@
           <t>2015-10-03T18:28:03</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2015-10-03T18:28:04</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2015-10-03T18:28:04</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1742,6 +2082,26 @@
           <t>2015-10-09T22:18:28</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2015-10-09T22:18:28</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2015-10-09T22:18:28</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1814,6 +2174,26 @@
           <t>2015-09-20T23:00:23</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2015-09-20T23:00:24</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2015-09-20T23:00:25</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1886,6 +2266,26 @@
           <t>2015-09-19T21:27:43</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2015-09-19T21:27:43</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2015-09-19T21:27:44</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1958,6 +2358,26 @@
           <t>2015-09-19T22:35:41</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2015-09-19T22:35:41</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2015-09-19T22:35:41</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2450,26 @@
           <t>2015-09-20T14:45:58</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2015-09-20T14:45:58</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2015-09-20T14:45:58</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2102,6 +2542,26 @@
           <t>2015-10-08T02:54:32</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2015-10-08T02:54:32</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2015-10-08T02:54:34</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2174,6 +2634,26 @@
           <t>2015-12-13T01:17:57</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2015-12-13T01:17:59</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2015-12-13T01:18:00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2246,6 +2726,26 @@
           <t>2016-02-16T15:49:49</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2016-02-16T15:49:49</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2016-02-16T15:49:50</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2318,6 +2818,26 @@
           <t>2016-02-22T18:47:12</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2016-02-22T18:47:12</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2016-02-22T18:47:13</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2390,6 +2910,26 @@
           <t>2016-03-04T07:58:29</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:31</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:31</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2462,6 +3002,26 @@
           <t>2016-02-25T11:49:25</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2016-02-25T11:49:25</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2016-02-25T11:49:26</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2534,6 +3094,26 @@
           <t>2016-06-03T13:47:02</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PB13</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:47:05</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:47:07</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2606,6 +3186,26 @@
           <t>2016-06-05T09:31:10</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2016-06-05T09:31:10</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2016-06-05T09:31:10</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2678,6 +3278,26 @@
           <t>2016-06-25T10:47:50</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2016-06-25T10:47:52</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2016-06-25T10:47:52</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2750,6 +3370,26 @@
           <t>2016-07-05T09:53:19</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:19</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:21</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2822,6 +3462,26 @@
           <t>2014-03-18T20:17:44</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:44</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:49</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2894,6 +3554,26 @@
           <t>2017-10-07T10:37:36</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2017-10-07T10:37:36</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2017-10-07T10:37:37</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2966,6 +3646,26 @@
           <t>2015-07-23T00:27:56</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2015-07-23T00:27:56</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2015-07-23T00:27:57</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3038,6 +3738,26 @@
           <t>2018-06-29T22:17:44</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:44</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:44</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3110,6 +3830,26 @@
           <t>2019-03-28T21:01:10</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>PB19</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:01:14</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:01:18</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3182,6 +3922,26 @@
           <t>2019-08-02T00:09:27</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>BO01</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:27</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:29</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3254,6 +4014,26 @@
           <t>2020-01-09T16:26:13</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2020-01-09T16:26:15</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2020-01-09T16:26:15</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3326,6 +4106,26 @@
           <t>2020-10-06T05:16:38</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2020-10-06T05:16:38</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2020-10-06T05:16:40</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3396,6 +4196,26 @@
       <c r="P41" t="inlineStr">
         <is>
           <t>2020-11-12T10:24:55</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:56</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:56</t>
         </is>
       </c>
     </row>

--- a/BD paper/catalogos/waveform_4p1_filtered.xlsx
+++ b/BD paper/catalogos/waveform_4p1_filtered.xlsx
@@ -495,37 +495,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Inicio estación más cercana 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 7</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -587,37 +587,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2014-03-04T02:49:49</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-03-04T02:49:55</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2014-03-04T02:49:56</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2014-03-04T02:49:57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2014-03-04T02:49:57</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-04-04T07:57:44</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-04-04T07:57:45</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2014-04-04T07:57:46</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2014-04-04T07:57:47</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2014-04-04T07:57:48</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -771,37 +771,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-04-12T22:35:15</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-04-12T22:35:16</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2014-04-12T22:35:17</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2014-04-12T22:35:18</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2014-04-12T22:35:19</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -863,37 +863,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2014-03-24T12:22:31</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-03-24T12:22:33</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2014-03-24T12:22:33</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2014-03-24T12:22:36</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2014-03-24T12:22:36</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PB12</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -955,37 +955,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2014-03-24T05:22:48</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-03-24T05:22:51</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2014-03-24T05:22:52</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2014-03-24T05:22:53</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2014-03-24T05:22:54</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1047,37 +1047,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-03-15T09:31:30</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-03-15T09:31:30</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2014-03-15T09:31:32</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2014-03-15T09:31:34</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2014-03-15T09:31:35</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-05-15T16:20:59</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-05-15T16:21:00</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2014-05-15T16:21:04</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2014-05-15T16:21:05</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2014-05-15T16:21:06</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-04-20T04:23:19</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-04-20T04:23:19</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2014-04-20T04:23:21</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2014-04-20T04:23:22</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2014-04-20T04:23:24</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2014-04-21T07:10:48</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-04-21T07:10:48</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2014-04-21T07:10:50</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2014-04-21T07:10:51</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2014-04-21T07:10:51</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>2014-06-19T00:31:30</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-06-19T00:31:30</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2014-06-19T00:31:32</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2014-06-19T00:31:33</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2014-06-19T00:31:33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2014-06-24T11:23:36</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-06-24T11:23:39</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2014-06-24T11:23:41</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2014-06-24T11:23:41</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2014-06-24T11:23:42</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1599,37 +1599,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-12-15T00:32:26</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-12-15T00:32:26</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2014-12-15T00:32:32</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2014-12-15T00:32:32</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2014-12-15T00:32:33</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>V25A</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2015-02-14T14:47:42</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2015-02-14T14:47:43</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2015-02-14T14:47:45</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2015-02-14T14:47:46</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2015-02-14T14:47:46</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1783,37 +1783,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>2015-03-02T14:02:13</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2015-03-02T14:02:15</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2015-03-02T14:02:20</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2015-03-02T14:02:21</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2015-03-02T14:02:22</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>AC01</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1875,37 +1875,37 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2015-09-21T19:08:14</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2015-09-21T19:08:14</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2015-09-21T19:08:16</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2015-09-21T19:08:17</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2015-09-21T19:08:20</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1967,37 +1967,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2015-10-03T18:27:53</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2015-10-03T18:28:01</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2015-10-03T18:28:02</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2015-10-03T18:28:03</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2015-10-03T18:28:03</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2059,37 +2059,37 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2015-10-09T22:18:21</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2015-10-09T22:18:27</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2015-10-09T22:18:27</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2015-10-09T22:18:28</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2015-10-09T22:18:28</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>CO02</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2151,37 +2151,37 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>2015-09-20T23:00:13</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2015-09-20T23:00:21</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2015-09-20T23:00:23</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2015-09-20T23:00:23</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2015-09-20T23:00:23</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2243,37 +2243,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2015-09-19T21:27:37</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2015-09-19T21:27:38</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2015-09-19T21:27:39</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2015-09-19T21:27:43</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2015-09-19T21:27:43</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2335,37 +2335,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2015-09-19T22:35:33</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2015-09-19T22:35:37</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2015-09-19T22:35:38</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2015-09-19T22:35:41</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2015-09-19T22:35:41</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2015-09-20T14:45:49</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2015-09-20T14:45:52</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2015-09-20T14:45:53</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2015-09-20T14:45:54</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2015-09-20T14:45:58</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2015-10-08T02:54:24</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2015-10-08T02:54:27</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2015-10-08T02:54:28</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2015-10-08T02:54:28</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2015-10-08T02:54:32</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2611,37 +2611,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2015-12-13T01:17:52</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2015-12-13T01:17:53</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2015-12-13T01:17:53</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2015-12-13T01:17:54</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2015-12-13T01:17:57</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2703,37 +2703,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2016-02-16T15:49:39</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2016-02-16T15:49:44</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2016-02-16T15:49:45</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2016-02-16T15:49:46</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2016-02-16T15:49:49</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2795,37 +2795,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2016-02-22T18:47:03</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2016-02-22T18:47:07</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2016-02-22T18:47:08</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2016-02-22T18:47:08</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2016-02-22T18:47:12</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2887,37 +2887,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2016-03-04T07:58:22</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2016-03-04T07:58:24</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2016-03-04T07:58:27</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2016-03-04T07:58:27</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2016-03-04T07:58:29</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>PB07</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2979,37 +2979,37 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2016-02-25T11:49:14</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2016-02-25T11:49:23</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>2016-02-25T11:49:24</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2016-02-25T11:49:25</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2016-02-25T11:49:25</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3071,37 +3071,37 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PB13</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>2016-06-03T13:46:54</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2016-06-03T13:46:58</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>2016-06-03T13:47:00</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2016-06-03T13:47:02</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>2016-06-03T13:47:02</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>PB13</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3163,37 +3163,37 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2016-06-05T09:30:58</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2016-06-05T09:31:04</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>2016-06-05T09:31:04</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2016-06-05T09:31:04</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>2016-06-05T09:31:10</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>AC04</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3255,37 +3255,37 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2016-06-25T10:47:46</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2016-06-25T10:47:46</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>2016-06-25T10:47:46</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2016-06-25T10:47:46</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>2016-06-25T10:47:50</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>V25A</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3347,37 +3347,37 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>2016-07-05T09:53:11</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2016-07-05T09:53:14</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>2016-07-05T09:53:15</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2016-07-05T09:53:16</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2016-07-05T09:53:19</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3439,37 +3439,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2014-03-18T20:17:37</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2014-03-18T20:17:39</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>2014-03-18T20:17:40</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2014-03-18T20:17:43</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2014-03-18T20:17:44</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3531,37 +3531,37 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2017-10-07T10:37:30</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2017-10-07T10:37:31</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>2017-10-07T10:37:33</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2017-10-07T10:37:36</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>2017-10-07T10:37:36</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3623,37 +3623,37 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>2015-07-23T00:27:51</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2015-07-23T00:27:53</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2015-07-23T00:27:54</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2015-07-23T00:27:54</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>2015-07-23T00:27:56</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>PB12</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3715,37 +3715,37 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2018-06-29T22:17:38</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2018-06-29T22:17:43</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2018-06-29T22:17:43</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2018-06-29T22:17:44</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>2018-06-29T22:17:44</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3807,37 +3807,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>PB19</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2019-03-28T21:00:57</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2019-03-28T21:01:08</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2019-03-28T21:01:08</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2019-03-28T21:01:09</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2019-03-28T21:01:10</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>PB19</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>PB05</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3899,37 +3899,37 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>BO01</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2019-08-02T00:09:20</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2019-08-02T00:09:23</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2019-08-02T00:09:23</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2019-08-02T00:09:25</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>2019-08-02T00:09:27</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>MT01</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>BO01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3991,37 +3991,37 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>2020-01-09T16:26:09</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2020-01-09T16:26:10</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>2020-01-09T16:26:12</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2020-01-09T16:26:12</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>2020-01-09T16:26:13</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4083,37 +4083,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2020-10-06T05:16:32</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2020-10-06T05:16:35</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>2020-10-06T05:16:35</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2020-10-06T05:16:37</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2020-10-06T05:16:38</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4175,37 +4175,37 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2020-11-12T10:24:45</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2020-11-12T10:24:54</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>2020-11-12T10:24:54</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2020-11-12T10:24:55</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2020-11-12T10:24:55</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
